--- a/DATA FILES/Extracted_Data/ar_1976.xlsx
+++ b/DATA FILES/Extracted_Data/ar_1976.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I314"/>
+  <dimension ref="A1:I315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,42 +434,50 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="n">
-        <v>10000</v>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>AVEIRO</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>ar</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>25/04/1976</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="G1" t="n">
-        <v>99647</v>
-      </c>
-      <c r="H1" t="n">
-        <v>30.84000015258789</v>
-      </c>
-      <c r="I1" t="n">
-        <v>5</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>CODIGO</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>DIST_CONC_FREG</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>T_ELEI</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>D_ELEI</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>SIGLA</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>T_DADOS</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>VOTOS</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>P_VOTOS</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>MANDATOS</t>
+        </is>
       </c>
     </row>
     <row r="2">
@@ -481,7 +501,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>UDP</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -490,13 +510,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2955</v>
+        <v>99647</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9100000262260437</v>
+        <v>30.84000015258789</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -520,7 +540,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>AOC</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -529,10 +549,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>935</v>
+        <v>2955</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2899999916553497</v>
+        <v>0.9100000262260437</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -559,7 +579,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>AOC</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -568,13 +588,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>72638</v>
+        <v>935</v>
       </c>
       <c r="H4" t="n">
-        <v>22.47999954223633</v>
+        <v>0.2899999916553497</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -598,7 +618,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>FSP</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -607,13 +627,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1224</v>
+        <v>72638</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3799999952316284</v>
+        <v>22.47999954223633</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -637,7 +657,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>LCI</t>
+          <t>FSP</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -646,10 +666,10 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>804</v>
+        <v>1224</v>
       </c>
       <c r="H6" t="n">
-        <v>0.25</v>
+        <v>0.3799999952316284</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -676,7 +696,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MES</t>
+          <t>LCI</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -685,10 +705,10 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1519</v>
+        <v>804</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4699999988079071</v>
+        <v>0.25</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -715,7 +735,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>MRPP</t>
+          <t>MES</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -724,10 +744,10 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1330</v>
+        <v>1519</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4099999964237213</v>
+        <v>0.4699999988079071</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -754,7 +774,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>PCP</t>
+          <t>MRPP</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -763,10 +783,10 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>11962</v>
+        <v>1330</v>
       </c>
       <c r="H9" t="n">
-        <v>3.700000047683716</v>
+        <v>0.4099999964237213</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -793,7 +813,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>PDC</t>
+          <t>PCP</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -802,10 +822,10 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1591</v>
+        <v>11962</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4900000095367432</v>
+        <v>3.700000047683716</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -832,7 +852,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>PPD</t>
+          <t>PDC</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -841,13 +861,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>113595</v>
+        <v>1591</v>
       </c>
       <c r="H11" t="n">
-        <v>35.15999984741211</v>
+        <v>0.4900000095367432</v>
       </c>
       <c r="I11" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -871,7 +891,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>PPM</t>
+          <t>PPD</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -880,22 +900,22 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1187</v>
+        <v>113595</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3700000047683716</v>
+        <v>35.15999984741211</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BEJA</t>
+          <t>AVEIRO</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -910,7 +930,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>AOC</t>
+          <t>PPM</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -919,10 +939,10 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>557</v>
+        <v>1187</v>
       </c>
       <c r="H13" t="n">
-        <v>0.4600000083446503</v>
+        <v>0.3700000047683716</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -949,7 +969,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>AOC</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -958,10 +978,10 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>5004</v>
+        <v>557</v>
       </c>
       <c r="H14" t="n">
-        <v>4.170000076293945</v>
+        <v>0.4600000083446503</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -988,7 +1008,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>FSP</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -997,10 +1017,10 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1564</v>
+        <v>5004</v>
       </c>
       <c r="H15" t="n">
-        <v>1.299999952316284</v>
+        <v>4.170000076293945</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1027,7 +1047,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>LCI</t>
+          <t>FSP</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1036,10 +1056,10 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>481</v>
+        <v>1564</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4000000059604645</v>
+        <v>1.299999952316284</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1066,7 +1086,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>MES</t>
+          <t>LCI</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1075,10 +1095,10 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2092</v>
+        <v>481</v>
       </c>
       <c r="H17" t="n">
-        <v>1.740000009536743</v>
+        <v>0.4000000059604645</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1105,7 +1125,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>MRPP</t>
+          <t>MES</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1114,10 +1134,10 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>428</v>
+        <v>2092</v>
       </c>
       <c r="H18" t="n">
-        <v>0.3600000143051147</v>
+        <v>1.740000009536743</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1144,7 +1164,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>PCP</t>
+          <t>MRPP</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1153,13 +1173,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>52839</v>
+        <v>428</v>
       </c>
       <c r="H19" t="n">
-        <v>43.9900016784668</v>
+        <v>0.3600000143051147</v>
       </c>
       <c r="I19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1183,7 +1203,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>PPD</t>
+          <t>PCP</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1192,13 +1212,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>9882</v>
+        <v>52839</v>
       </c>
       <c r="H20" t="n">
-        <v>8.229999542236328</v>
+        <v>43.9900016784668</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -1222,7 +1242,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>PPM</t>
+          <t>PPD</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1231,10 +1251,10 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>724</v>
+        <v>9882</v>
       </c>
       <c r="H21" t="n">
-        <v>0.6000000238418579</v>
+        <v>8.229999542236328</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1261,7 +1281,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PPM</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1270,13 +1290,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>38405</v>
+        <v>724</v>
       </c>
       <c r="H22" t="n">
-        <v>31.96999931335449</v>
+        <v>0.6000000238418579</v>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1300,7 +1320,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>UDP</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1309,22 +1329,22 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2671</v>
+        <v>38405</v>
       </c>
       <c r="H23" t="n">
-        <v>2.220000028610229</v>
+        <v>31.96999931335449</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BRAGA</t>
+          <t>BEJA</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1339,7 +1359,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>AOC</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1348,10 +1368,10 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>569</v>
+        <v>2671</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1700000017881393</v>
+        <v>2.220000028610229</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -1378,7 +1398,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>AOC</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1387,13 +1407,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>86148</v>
+        <v>569</v>
       </c>
       <c r="H25" t="n">
-        <v>25.14999961853027</v>
+        <v>0.1700000017881393</v>
       </c>
       <c r="I25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1417,7 +1437,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>FSP</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1426,13 +1446,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2945</v>
+        <v>86148</v>
       </c>
       <c r="H26" t="n">
-        <v>0.8600000143051147</v>
+        <v>25.14999961853027</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
@@ -1456,7 +1476,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>LCI</t>
+          <t>FSP</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1465,10 +1485,10 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>651</v>
+        <v>2945</v>
       </c>
       <c r="H27" t="n">
-        <v>0.1899999976158142</v>
+        <v>0.8600000143051147</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -1495,7 +1515,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>MES</t>
+          <t>LCI</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1504,10 +1524,10 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>998</v>
+        <v>651</v>
       </c>
       <c r="H28" t="n">
-        <v>0.2899999916553497</v>
+        <v>0.1899999976158142</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -1534,7 +1554,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>MRPP</t>
+          <t>MES</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1543,10 +1563,10 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1589</v>
+        <v>998</v>
       </c>
       <c r="H29" t="n">
-        <v>0.4600000083446503</v>
+        <v>0.2899999916553497</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -1573,7 +1593,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>PCP</t>
+          <t>MRPP</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1582,10 +1602,10 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>14202</v>
+        <v>1589</v>
       </c>
       <c r="H30" t="n">
-        <v>4.150000095367432</v>
+        <v>0.4600000083446503</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -1612,7 +1632,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>PCP (M-L)</t>
+          <t>PCP</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1621,10 +1641,10 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>930</v>
+        <v>14202</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2700000107288361</v>
+        <v>4.150000095367432</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -1651,7 +1671,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>PDC</t>
+          <t>PCP (M-L)</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1660,10 +1680,10 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1722</v>
+        <v>930</v>
       </c>
       <c r="H32" t="n">
-        <v>0.5</v>
+        <v>0.2700000107288361</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -1690,7 +1710,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>PPD</t>
+          <t>PDC</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1699,13 +1719,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>97886</v>
+        <v>1722</v>
       </c>
       <c r="H33" t="n">
-        <v>28.57999992370605</v>
+        <v>0.5</v>
       </c>
       <c r="I33" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1729,7 +1749,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>PPM</t>
+          <t>PPD</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1738,13 +1758,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2658</v>
+        <v>97886</v>
       </c>
       <c r="H34" t="n">
-        <v>0.7799999713897705</v>
+        <v>28.57999992370605</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35">
@@ -1768,7 +1788,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PPM</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1777,13 +1797,13 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>110586</v>
+        <v>2658</v>
       </c>
       <c r="H35" t="n">
-        <v>32.27999877929688</v>
+        <v>0.7799999713897705</v>
       </c>
       <c r="I35" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1807,7 +1827,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>UDP</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1816,22 +1836,22 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3527</v>
+        <v>110586</v>
       </c>
       <c r="H36" t="n">
-        <v>1.029999971389771</v>
+        <v>32.27999877929688</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>BRAGANÇA</t>
+          <t>BRAGA</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1846,7 +1866,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>AOC</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1855,10 +1875,10 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>626</v>
+        <v>3527</v>
       </c>
       <c r="H37" t="n">
-        <v>0.6600000262260437</v>
+        <v>1.029999971389771</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -1885,7 +1905,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>AOC</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1894,13 +1914,13 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>26927</v>
+        <v>626</v>
       </c>
       <c r="H38" t="n">
-        <v>28.29999923706055</v>
+        <v>0.6600000262260437</v>
       </c>
       <c r="I38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1924,7 +1944,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>FSP</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1933,13 +1953,13 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1003</v>
+        <v>26927</v>
       </c>
       <c r="H39" t="n">
-        <v>1.049999952316284</v>
+        <v>28.29999923706055</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -1963,7 +1983,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>LCI</t>
+          <t>FSP</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1972,10 +1992,10 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>341</v>
+        <v>1003</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3600000143051147</v>
+        <v>1.049999952316284</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -2002,7 +2022,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>MES</t>
+          <t>LCI</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2011,10 +2031,10 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>411</v>
+        <v>341</v>
       </c>
       <c r="H41" t="n">
-        <v>0.4300000071525574</v>
+        <v>0.3600000143051147</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -2041,7 +2061,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>MRPP</t>
+          <t>MES</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2050,10 +2070,10 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>581</v>
+        <v>411</v>
       </c>
       <c r="H42" t="n">
-        <v>0.6100000143051147</v>
+        <v>0.4300000071525574</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -2080,7 +2100,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>PCP</t>
+          <t>MRPP</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2089,10 +2109,10 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2530</v>
+        <v>581</v>
       </c>
       <c r="H43" t="n">
-        <v>2.660000085830688</v>
+        <v>0.6100000143051147</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -2119,7 +2139,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>PCP (M-L)</t>
+          <t>PCP</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2128,10 +2148,10 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>511</v>
+        <v>2530</v>
       </c>
       <c r="H44" t="n">
-        <v>0.5400000214576721</v>
+        <v>2.660000085830688</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -2158,7 +2178,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>PDC</t>
+          <t>PCP (M-L)</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2167,10 +2187,10 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>812</v>
+        <v>511</v>
       </c>
       <c r="H45" t="n">
-        <v>0.8500000238418579</v>
+        <v>0.5400000214576721</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -2197,7 +2217,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>PPD</t>
+          <t>PDC</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2206,13 +2226,13 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>31636</v>
+        <v>812</v>
       </c>
       <c r="H46" t="n">
-        <v>33.25</v>
+        <v>0.8500000238418579</v>
       </c>
       <c r="I46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2236,7 +2256,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>PPM</t>
+          <t>PPD</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2245,13 +2265,13 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>739</v>
+        <v>31636</v>
       </c>
       <c r="H47" t="n">
-        <v>0.7799999713897705</v>
+        <v>33.25</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
@@ -2275,7 +2295,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PPM</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2284,13 +2304,13 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>21514</v>
+        <v>739</v>
       </c>
       <c r="H48" t="n">
-        <v>22.61000061035156</v>
+        <v>0.7799999713897705</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2314,7 +2334,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>UDP</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2323,22 +2343,22 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>768</v>
+        <v>21514</v>
       </c>
       <c r="H49" t="n">
-        <v>0.8100000023841858</v>
+        <v>22.61000061035156</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>CASTELO BRANCO</t>
+          <t>BRAGANÇA</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2353,7 +2373,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>AOC</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2362,10 +2382,10 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>577</v>
+        <v>768</v>
       </c>
       <c r="H50" t="n">
-        <v>0.4099999964237213</v>
+        <v>0.8100000023841858</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -2392,7 +2412,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>AOC</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2401,13 +2421,13 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>28257</v>
+        <v>577</v>
       </c>
       <c r="H51" t="n">
-        <v>19.86000061035156</v>
+        <v>0.4099999964237213</v>
       </c>
       <c r="I51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2431,7 +2451,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>FSP</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2440,13 +2460,13 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1708</v>
+        <v>28257</v>
       </c>
       <c r="H52" t="n">
-        <v>1.200000047683716</v>
+        <v>19.86000061035156</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
@@ -2470,7 +2490,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>LCI</t>
+          <t>FSP</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2479,10 +2499,10 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>481</v>
+        <v>1708</v>
       </c>
       <c r="H53" t="n">
-        <v>0.3400000035762787</v>
+        <v>1.200000047683716</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -2509,7 +2529,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>MES</t>
+          <t>LCI</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2518,10 +2538,10 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>844</v>
+        <v>481</v>
       </c>
       <c r="H54" t="n">
-        <v>0.5899999737739563</v>
+        <v>0.3400000035762787</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -2548,7 +2568,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>MRPP</t>
+          <t>MES</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2557,10 +2577,10 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1325</v>
+        <v>844</v>
       </c>
       <c r="H55" t="n">
-        <v>0.9300000071525574</v>
+        <v>0.5899999737739563</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -2587,7 +2607,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>PCP</t>
+          <t>MRPP</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -2596,10 +2616,10 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>9369</v>
+        <v>1325</v>
       </c>
       <c r="H56" t="n">
-        <v>6.590000152587891</v>
+        <v>0.9300000071525574</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -2626,7 +2646,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>PCP (M-L)</t>
+          <t>PCP</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2635,10 +2655,10 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>586</v>
+        <v>9369</v>
       </c>
       <c r="H57" t="n">
-        <v>0.4099999964237213</v>
+        <v>6.590000152587891</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -2665,7 +2685,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>PDC</t>
+          <t>PCP (M-L)</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2674,10 +2694,10 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1163</v>
+        <v>586</v>
       </c>
       <c r="H58" t="n">
-        <v>0.8199999928474426</v>
+        <v>0.4099999964237213</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -2704,7 +2724,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>PPD</t>
+          <t>PDC</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2713,13 +2733,13 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>32212</v>
+        <v>1163</v>
       </c>
       <c r="H59" t="n">
-        <v>22.63999938964844</v>
+        <v>0.8199999928474426</v>
       </c>
       <c r="I59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2743,7 +2763,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>PPM</t>
+          <t>PPD</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -2752,13 +2772,13 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>959</v>
+        <v>32212</v>
       </c>
       <c r="H60" t="n">
-        <v>0.6700000166893005</v>
+        <v>22.63999938964844</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
@@ -2782,7 +2802,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PPM</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2791,13 +2811,13 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>51822</v>
+        <v>959</v>
       </c>
       <c r="H61" t="n">
-        <v>36.43000030517578</v>
+        <v>0.6700000166893005</v>
       </c>
       <c r="I61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2821,7 +2841,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>UDP</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -2830,22 +2850,22 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1520</v>
+        <v>51822</v>
       </c>
       <c r="H62" t="n">
-        <v>1.070000052452087</v>
+        <v>36.43000030517578</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>COIMBRA</t>
+          <t>CASTELO BRANCO</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2860,7 +2880,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>AOC</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -2869,10 +2889,10 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1066</v>
+        <v>1520</v>
       </c>
       <c r="H63" t="n">
-        <v>0.4399999976158142</v>
+        <v>1.070000052452087</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -2899,7 +2919,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>AOC</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -2908,13 +2928,13 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>29967</v>
+        <v>1066</v>
       </c>
       <c r="H64" t="n">
-        <v>12.47999954223633</v>
+        <v>0.4399999976158142</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2938,7 +2958,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>FSP</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2947,13 +2967,13 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1718</v>
+        <v>29967</v>
       </c>
       <c r="H65" t="n">
-        <v>0.7200000286102295</v>
+        <v>12.47999954223633</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2977,7 +2997,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>LCI</t>
+          <t>FSP</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -2986,10 +3006,10 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1159</v>
+        <v>1718</v>
       </c>
       <c r="H66" t="n">
-        <v>0.4799999892711639</v>
+        <v>0.7200000286102295</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -3016,7 +3036,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>MES</t>
+          <t>LCI</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3025,10 +3045,10 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1090</v>
+        <v>1159</v>
       </c>
       <c r="H67" t="n">
-        <v>0.449999988079071</v>
+        <v>0.4799999892711639</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -3055,7 +3075,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>PCP</t>
+          <t>MES</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3064,13 +3084,13 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>17405</v>
+        <v>1090</v>
       </c>
       <c r="H68" t="n">
-        <v>7.25</v>
+        <v>0.449999988079071</v>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -3094,7 +3114,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>PCP (M-L)</t>
+          <t>PCP</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -3103,13 +3123,13 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>498</v>
+        <v>17405</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2099999934434891</v>
+        <v>7.25</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -3133,7 +3153,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>MRPP</t>
+          <t>PCP (M-L)</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -3142,10 +3162,10 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1430</v>
+        <v>498</v>
       </c>
       <c r="H70" t="n">
-        <v>0.6000000238418579</v>
+        <v>0.2099999934434891</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -3172,7 +3192,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>PDC</t>
+          <t>MRPP</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -3181,10 +3201,10 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1671</v>
+        <v>1430</v>
       </c>
       <c r="H71" t="n">
-        <v>0.699999988079071</v>
+        <v>0.6000000238418579</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -3211,7 +3231,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>PPD</t>
+          <t>PDC</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -3220,13 +3240,13 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>64162</v>
+        <v>1671</v>
       </c>
       <c r="H72" t="n">
-        <v>26.71999931335449</v>
+        <v>0.699999988079071</v>
       </c>
       <c r="I72" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -3250,7 +3270,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>PPM</t>
+          <t>PPD</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -3259,13 +3279,13 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1356</v>
+        <v>64162</v>
       </c>
       <c r="H73" t="n">
-        <v>0.5600000023841858</v>
+        <v>26.71999931335449</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74">
@@ -3289,7 +3309,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>PRT</t>
+          <t>PPM</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -3298,10 +3318,10 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1584</v>
+        <v>1356</v>
       </c>
       <c r="H74" t="n">
-        <v>0.6600000262260437</v>
+        <v>0.5600000023841858</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -3328,7 +3348,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PRT</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -3337,13 +3357,13 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>98162</v>
+        <v>1584</v>
       </c>
       <c r="H75" t="n">
-        <v>40.88999938964844</v>
+        <v>0.6600000262260437</v>
       </c>
       <c r="I75" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -3367,7 +3387,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>UDP</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -3376,22 +3396,22 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2771</v>
+        <v>98162</v>
       </c>
       <c r="H76" t="n">
-        <v>1.149999976158142</v>
+        <v>40.88999938964844</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>70000</v>
+        <v>60000</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>ÉVORA</t>
+          <t>COIMBRA</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3406,7 +3426,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>AOC</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -3415,10 +3435,10 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>409</v>
+        <v>2771</v>
       </c>
       <c r="H77" t="n">
-        <v>0.3400000035762787</v>
+        <v>1.149999976158142</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -3445,7 +3465,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>AOC</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -3454,10 +3474,10 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>9645</v>
+        <v>409</v>
       </c>
       <c r="H78" t="n">
-        <v>7.960000038146973</v>
+        <v>0.3400000035762787</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -3484,7 +3504,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>FSP</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -3493,10 +3513,10 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1491</v>
+        <v>9645</v>
       </c>
       <c r="H79" t="n">
-        <v>1.230000019073486</v>
+        <v>7.960000038146973</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -3523,7 +3543,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>LCI</t>
+          <t>FSP</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -3532,10 +3552,10 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>358</v>
+        <v>1491</v>
       </c>
       <c r="H80" t="n">
-        <v>0.300000011920929</v>
+        <v>1.230000019073486</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -3562,7 +3582,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>MES</t>
+          <t>LCI</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -3571,10 +3591,10 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>790</v>
+        <v>358</v>
       </c>
       <c r="H81" t="n">
-        <v>0.6499999761581421</v>
+        <v>0.300000011920929</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -3601,7 +3621,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>PCP</t>
+          <t>MES</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -3610,13 +3630,13 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>52291</v>
+        <v>790</v>
       </c>
       <c r="H82" t="n">
-        <v>43.15000152587891</v>
+        <v>0.6499999761581421</v>
       </c>
       <c r="I82" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3640,7 +3660,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>MRPP</t>
+          <t>PCP</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -3649,13 +3669,13 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>407</v>
+        <v>52291</v>
       </c>
       <c r="H83" t="n">
-        <v>0.3400000035762787</v>
+        <v>43.15000152587891</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84">
@@ -3679,7 +3699,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>PPD</t>
+          <t>MRPP</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -3688,10 +3708,10 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>11107</v>
+        <v>407</v>
       </c>
       <c r="H84" t="n">
-        <v>9.159999847412109</v>
+        <v>0.3400000035762787</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -3718,7 +3738,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>PPM</t>
+          <t>PPD</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -3727,10 +3747,10 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>844</v>
+        <v>11107</v>
       </c>
       <c r="H85" t="n">
-        <v>0.699999988079071</v>
+        <v>9.159999847412109</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -3757,7 +3777,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PPM</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -3766,13 +3786,13 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>36679</v>
+        <v>844</v>
       </c>
       <c r="H86" t="n">
-        <v>30.26000022888184</v>
+        <v>0.699999988079071</v>
       </c>
       <c r="I86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -3796,7 +3816,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>UDP</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -3805,22 +3825,22 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>3151</v>
+        <v>36679</v>
       </c>
       <c r="H87" t="n">
-        <v>2.599999904632568</v>
+        <v>30.26000022888184</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>80000</v>
+        <v>70000</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>FARO</t>
+          <t>ÉVORA</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3835,7 +3855,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>AOC</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -3844,10 +3864,10 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1021</v>
+        <v>3151</v>
       </c>
       <c r="H88" t="n">
-        <v>0.5299999713897705</v>
+        <v>2.599999904632568</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -3874,7 +3894,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>AOC</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -3883,10 +3903,10 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>13010</v>
+        <v>1021</v>
       </c>
       <c r="H89" t="n">
-        <v>6.809999942779541</v>
+        <v>0.5299999713897705</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -3913,7 +3933,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>FSP</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -3922,10 +3942,10 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>3839</v>
+        <v>13010</v>
       </c>
       <c r="H90" t="n">
-        <v>2.009999990463257</v>
+        <v>6.809999942779541</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -3952,7 +3972,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>LCI</t>
+          <t>FSP</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -3961,10 +3981,10 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>743</v>
+        <v>3839</v>
       </c>
       <c r="H91" t="n">
-        <v>0.3899999856948853</v>
+        <v>2.009999990463257</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -3991,7 +4011,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>MES</t>
+          <t>LCI</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -4000,10 +4020,10 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1387</v>
+        <v>743</v>
       </c>
       <c r="H92" t="n">
-        <v>0.7300000190734863</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -4030,7 +4050,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>PCP</t>
+          <t>MES</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -4039,13 +4059,13 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>27667</v>
+        <v>1387</v>
       </c>
       <c r="H93" t="n">
-        <v>14.47000026702881</v>
+        <v>0.7300000190734863</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -4069,7 +4089,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>PCP (M-L)</t>
+          <t>PCP</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -4078,13 +4098,13 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>797</v>
+        <v>27667</v>
       </c>
       <c r="H94" t="n">
-        <v>0.4199999868869781</v>
+        <v>14.47000026702881</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -4108,7 +4128,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>MRPP</t>
+          <t>PCP (M-L)</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -4117,10 +4137,10 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1957</v>
+        <v>797</v>
       </c>
       <c r="H95" t="n">
-        <v>1.019999980926514</v>
+        <v>0.4199999868869781</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -4147,7 +4167,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>PDC</t>
+          <t>MRPP</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -4156,10 +4176,10 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1493</v>
+        <v>1957</v>
       </c>
       <c r="H96" t="n">
-        <v>0.7799999713897705</v>
+        <v>1.019999980926514</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -4186,7 +4206,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>PPD</t>
+          <t>PDC</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -4195,13 +4215,13 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>36906</v>
+        <v>1493</v>
       </c>
       <c r="H97" t="n">
-        <v>19.30999946594238</v>
+        <v>0.7799999713897705</v>
       </c>
       <c r="I97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -4225,7 +4245,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>PPM</t>
+          <t>PPD</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -4234,13 +4254,13 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>966</v>
+        <v>36906</v>
       </c>
       <c r="H98" t="n">
-        <v>0.5099999904632568</v>
+        <v>19.30999946594238</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99">
@@ -4264,7 +4284,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PPM</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -4273,13 +4293,13 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>85313</v>
+        <v>966</v>
       </c>
       <c r="H99" t="n">
-        <v>44.63000106811523</v>
+        <v>0.5099999904632568</v>
       </c>
       <c r="I99" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -4303,7 +4323,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>UDP</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -4312,22 +4332,22 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>4928</v>
+        <v>85313</v>
       </c>
       <c r="H100" t="n">
-        <v>2.579999923706055</v>
+        <v>44.63000106811523</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>90000</v>
+        <v>80000</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>GUARDA</t>
+          <t>FARO</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4342,7 +4362,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -4351,13 +4371,13 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>39120</v>
+        <v>4928</v>
       </c>
       <c r="H101" t="n">
-        <v>32.04999923706055</v>
+        <v>2.579999923706055</v>
       </c>
       <c r="I101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -4381,7 +4401,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>FSP</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -4390,13 +4410,13 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1717</v>
+        <v>39120</v>
       </c>
       <c r="H102" t="n">
-        <v>1.409999966621399</v>
+        <v>32.04999923706055</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103">
@@ -4420,7 +4440,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>LCI</t>
+          <t>FSP</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -4429,10 +4449,10 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>452</v>
+        <v>1717</v>
       </c>
       <c r="H103" t="n">
-        <v>0.3700000047683716</v>
+        <v>1.409999966621399</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -4459,7 +4479,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>MES</t>
+          <t>LCI</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -4468,10 +4488,10 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1200</v>
+        <v>452</v>
       </c>
       <c r="H104" t="n">
-        <v>0.9800000190734863</v>
+        <v>0.3700000047683716</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -4498,7 +4518,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>PCP</t>
+          <t>MES</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -4507,10 +4527,10 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>3583</v>
+        <v>1200</v>
       </c>
       <c r="H105" t="n">
-        <v>2.940000057220459</v>
+        <v>0.9800000190734863</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -4537,7 +4557,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>MRPP</t>
+          <t>PCP</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -4546,10 +4566,10 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1009</v>
+        <v>3583</v>
       </c>
       <c r="H106" t="n">
-        <v>0.8299999833106995</v>
+        <v>2.940000057220459</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -4576,7 +4596,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>PDC</t>
+          <t>MRPP</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -4585,10 +4605,10 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1668</v>
+        <v>1009</v>
       </c>
       <c r="H107" t="n">
-        <v>1.370000004768372</v>
+        <v>0.8299999833106995</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -4615,7 +4635,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>PPD</t>
+          <t>PDC</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -4624,13 +4644,13 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>31307</v>
+        <v>1668</v>
       </c>
       <c r="H108" t="n">
-        <v>25.64999961853027</v>
+        <v>1.370000004768372</v>
       </c>
       <c r="I108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -4654,7 +4674,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>PPM</t>
+          <t>PPD</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -4663,13 +4683,13 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1125</v>
+        <v>31307</v>
       </c>
       <c r="H109" t="n">
-        <v>0.9200000166893005</v>
+        <v>25.64999961853027</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110">
@@ -4693,7 +4713,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PPM</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -4702,13 +4722,13 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>30746</v>
+        <v>1125</v>
       </c>
       <c r="H110" t="n">
-        <v>25.19000053405762</v>
+        <v>0.9200000166893005</v>
       </c>
       <c r="I110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -4732,7 +4752,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>UDP</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -4741,22 +4761,22 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1368</v>
+        <v>30746</v>
       </c>
       <c r="H111" t="n">
-        <v>1.120000004768372</v>
+        <v>25.19000053405762</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>100000</v>
+        <v>90000</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>LEIRIA</t>
+          <t>GUARDA</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4771,7 +4791,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>AOC</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -4780,10 +4800,10 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>514</v>
+        <v>1368</v>
       </c>
       <c r="H112" t="n">
-        <v>0.2300000041723251</v>
+        <v>1.120000004768372</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -4810,7 +4830,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>AOC</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -4819,13 +4839,13 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>43213</v>
+        <v>514</v>
       </c>
       <c r="H113" t="n">
-        <v>19.39999961853027</v>
+        <v>0.2300000041723251</v>
       </c>
       <c r="I113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -4849,7 +4869,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>FSP</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -4858,13 +4878,13 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2094</v>
+        <v>43213</v>
       </c>
       <c r="H114" t="n">
-        <v>0.9399999976158142</v>
+        <v>19.39999961853027</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115">
@@ -4888,7 +4908,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>LCI</t>
+          <t>FSP</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -4897,10 +4917,10 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>814</v>
+        <v>2094</v>
       </c>
       <c r="H115" t="n">
-        <v>0.3700000047683716</v>
+        <v>0.9399999976158142</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -4927,7 +4947,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>MES</t>
+          <t>LCI</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -4936,10 +4956,10 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1009</v>
+        <v>814</v>
       </c>
       <c r="H116" t="n">
-        <v>0.449999988079071</v>
+        <v>0.3700000047683716</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -4966,7 +4986,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>PCP</t>
+          <t>MES</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -4975,13 +4995,13 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>16226</v>
+        <v>1009</v>
       </c>
       <c r="H117" t="n">
-        <v>7.28000020980835</v>
+        <v>0.449999988079071</v>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -5005,7 +5025,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>PCP (M-L)</t>
+          <t>PCP</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -5014,13 +5034,13 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>399</v>
+        <v>16226</v>
       </c>
       <c r="H118" t="n">
-        <v>0.1800000071525574</v>
+        <v>7.28000020980835</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -5044,7 +5064,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>MRPP</t>
+          <t>PCP (M-L)</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -5053,10 +5073,10 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1169</v>
+        <v>399</v>
       </c>
       <c r="H119" t="n">
-        <v>0.5199999809265137</v>
+        <v>0.1800000071525574</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -5083,7 +5103,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>PDC</t>
+          <t>MRPP</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -5092,10 +5112,10 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1448</v>
+        <v>1169</v>
       </c>
       <c r="H120" t="n">
-        <v>0.6499999761581421</v>
+        <v>0.5199999809265137</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -5122,7 +5142,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>PPD</t>
+          <t>PDC</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -5131,13 +5151,13 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>69457</v>
+        <v>1448</v>
       </c>
       <c r="H121" t="n">
-        <v>31.18000030517578</v>
+        <v>0.6499999761581421</v>
       </c>
       <c r="I121" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -5161,7 +5181,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>PPM</t>
+          <t>PPD</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -5170,13 +5190,13 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1633</v>
+        <v>69457</v>
       </c>
       <c r="H122" t="n">
-        <v>0.7300000190734863</v>
+        <v>31.18000030517578</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="123">
@@ -5200,7 +5220,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PPM</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -5209,13 +5229,13 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>69236</v>
+        <v>1633</v>
       </c>
       <c r="H123" t="n">
-        <v>31.07999992370605</v>
+        <v>0.7300000190734863</v>
       </c>
       <c r="I123" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -5239,7 +5259,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>UDP</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -5248,22 +5268,22 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2136</v>
+        <v>69236</v>
       </c>
       <c r="H124" t="n">
-        <v>0.9599999785423279</v>
+        <v>31.07999992370605</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>110000</v>
+        <v>100000</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>LISBOA</t>
+          <t>LEIRIA</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -5278,7 +5298,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>AOC</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -5287,10 +5307,10 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2832</v>
+        <v>2136</v>
       </c>
       <c r="H125" t="n">
-        <v>0.239999994635582</v>
+        <v>0.9599999785423279</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -5317,7 +5337,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>AOC</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -5326,13 +5346,13 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>157554</v>
+        <v>2832</v>
       </c>
       <c r="H126" t="n">
-        <v>13.14999961853027</v>
+        <v>0.239999994635582</v>
       </c>
       <c r="I126" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -5356,7 +5376,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>FSP</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -5365,13 +5385,13 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>8192</v>
+        <v>157554</v>
       </c>
       <c r="H127" t="n">
-        <v>0.6800000071525574</v>
+        <v>13.14999961853027</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="128">
@@ -5395,7 +5415,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>LCI</t>
+          <t>FSP</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -5404,10 +5424,10 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2865</v>
+        <v>8192</v>
       </c>
       <c r="H128" t="n">
-        <v>0.239999994635582</v>
+        <v>0.6800000071525574</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -5434,7 +5454,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>MES</t>
+          <t>LCI</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -5443,10 +5463,10 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>7964</v>
+        <v>2865</v>
       </c>
       <c r="H129" t="n">
-        <v>0.6600000262260437</v>
+        <v>0.239999994635582</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -5473,7 +5493,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>MRPP</t>
+          <t>MES</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -5482,10 +5502,10 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>14372</v>
+        <v>7964</v>
       </c>
       <c r="H130" t="n">
-        <v>1.200000047683716</v>
+        <v>0.6600000262260437</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -5512,7 +5532,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>PCP</t>
+          <t>MRPP</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -5521,13 +5541,13 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>260554</v>
+        <v>14372</v>
       </c>
       <c r="H131" t="n">
-        <v>21.75</v>
+        <v>1.200000047683716</v>
       </c>
       <c r="I131" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -5551,7 +5571,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>PCP (M-L)</t>
+          <t>PCP</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -5560,13 +5580,13 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>5289</v>
+        <v>260554</v>
       </c>
       <c r="H132" t="n">
-        <v>0.4399999976158142</v>
+        <v>21.75</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="133">
@@ -5590,7 +5610,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>PDC</t>
+          <t>PCP (M-L)</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -5599,10 +5619,10 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>4348</v>
+        <v>5289</v>
       </c>
       <c r="H133" t="n">
-        <v>0.3600000143051147</v>
+        <v>0.4399999976158142</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -5629,7 +5649,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>PPD</t>
+          <t>PDC</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -5638,13 +5658,13 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>196031</v>
+        <v>4348</v>
       </c>
       <c r="H134" t="n">
-        <v>16.3700008392334</v>
+        <v>0.3600000143051147</v>
       </c>
       <c r="I134" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -5668,7 +5688,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>PPM</t>
+          <t>PPD</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -5677,13 +5697,13 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>4902</v>
+        <v>196031</v>
       </c>
       <c r="H135" t="n">
-        <v>0.4099999964237213</v>
+        <v>16.3700008392334</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="136">
@@ -5707,7 +5727,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>PRT</t>
+          <t>PPM</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -5716,10 +5736,10 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1580</v>
+        <v>4902</v>
       </c>
       <c r="H136" t="n">
-        <v>0.1299999952316284</v>
+        <v>0.4099999964237213</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -5746,7 +5766,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PRT</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -5755,13 +5775,13 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>458713</v>
+        <v>1580</v>
       </c>
       <c r="H137" t="n">
-        <v>38.29999923706055</v>
+        <v>0.1299999952316284</v>
       </c>
       <c r="I137" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -5785,7 +5805,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>UDP</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -5794,22 +5814,22 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>31409</v>
+        <v>458713</v>
       </c>
       <c r="H138" t="n">
-        <v>2.619999885559082</v>
+        <v>38.29999923706055</v>
       </c>
       <c r="I138" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>120000</v>
+        <v>110000</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>PORTALEGRE</t>
+          <t>LISBOA</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -5824,7 +5844,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>AOC</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -5833,13 +5853,13 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>598</v>
+        <v>31409</v>
       </c>
       <c r="H139" t="n">
-        <v>0.6200000047683716</v>
+        <v>2.619999885559082</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -5863,7 +5883,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>AOC</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -5872,10 +5892,10 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>13375</v>
+        <v>598</v>
       </c>
       <c r="H140" t="n">
-        <v>13.92000007629395</v>
+        <v>0.6200000047683716</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -5902,7 +5922,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>FSP</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -5911,10 +5931,10 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1004</v>
+        <v>13375</v>
       </c>
       <c r="H141" t="n">
-        <v>1.049999952316284</v>
+        <v>13.92000007629395</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -5941,7 +5961,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>LCI</t>
+          <t>FSP</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -5950,10 +5970,10 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>734</v>
+        <v>1004</v>
       </c>
       <c r="H142" t="n">
-        <v>0.7599999904632568</v>
+        <v>1.049999952316284</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -5980,7 +6000,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>MES</t>
+          <t>LCI</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -5989,10 +6009,10 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>934</v>
+        <v>734</v>
       </c>
       <c r="H143" t="n">
-        <v>0.9700000286102295</v>
+        <v>0.7599999904632568</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -6019,7 +6039,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>MRPP</t>
+          <t>MES</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -6028,10 +6048,10 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>352</v>
+        <v>934</v>
       </c>
       <c r="H144" t="n">
-        <v>0.3700000047683716</v>
+        <v>0.9700000286102295</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -6058,7 +6078,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>PCP</t>
+          <t>MRPP</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -6067,13 +6087,13 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>21135</v>
+        <v>352</v>
       </c>
       <c r="H145" t="n">
-        <v>22</v>
+        <v>0.3700000047683716</v>
       </c>
       <c r="I145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -6097,7 +6117,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>PCP (M-L)</t>
+          <t>PCP</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -6106,13 +6126,13 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>309</v>
+        <v>21135</v>
       </c>
       <c r="H146" t="n">
-        <v>0.3199999928474426</v>
+        <v>22</v>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -6136,7 +6156,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>PDC</t>
+          <t>PCP (M-L)</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -6145,10 +6165,10 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>630</v>
+        <v>309</v>
       </c>
       <c r="H147" t="n">
-        <v>0.6600000262260437</v>
+        <v>0.3199999928474426</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -6175,7 +6195,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>PPD</t>
+          <t>PDC</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -6184,10 +6204,10 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>9680</v>
+        <v>630</v>
       </c>
       <c r="H148" t="n">
-        <v>10.07999992370605</v>
+        <v>0.6600000262260437</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -6214,7 +6234,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>PPM</t>
+          <t>PPD</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -6223,10 +6243,10 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>475</v>
+        <v>9680</v>
       </c>
       <c r="H149" t="n">
-        <v>0.4900000095367432</v>
+        <v>10.07999992370605</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -6253,7 +6273,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PPM</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -6262,13 +6282,13 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>40238</v>
+        <v>475</v>
       </c>
       <c r="H150" t="n">
-        <v>41.88999938964844</v>
+        <v>0.4900000095367432</v>
       </c>
       <c r="I150" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -6292,7 +6312,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>UDP</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -6301,22 +6321,22 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>949</v>
+        <v>40238</v>
       </c>
       <c r="H151" t="n">
-        <v>0.9900000095367432</v>
+        <v>41.88999938964844</v>
       </c>
       <c r="I151" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>PORTO</t>
+          <t>PORTALEGRE</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -6331,7 +6351,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>MRPP</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -6340,10 +6360,10 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1963</v>
+        <v>949</v>
       </c>
       <c r="H152" t="n">
-        <v>0.239999994635582</v>
+        <v>0.9900000095367432</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -6370,7 +6390,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>PCP</t>
+          <t>MRPP</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -6379,13 +6399,13 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>69176</v>
+        <v>1963</v>
       </c>
       <c r="H153" t="n">
-        <v>8.359999656677246</v>
+        <v>0.239999994635582</v>
       </c>
       <c r="I153" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
@@ -6409,7 +6429,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>PCP (M-L)</t>
+          <t>PCP</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -6418,13 +6438,13 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1154</v>
+        <v>69176</v>
       </c>
       <c r="H154" t="n">
-        <v>0.1400000005960464</v>
+        <v>8.359999656677246</v>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="155">
@@ -6448,7 +6468,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>PDC</t>
+          <t>PCP (M-L)</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -6457,10 +6477,10 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>3014</v>
+        <v>1154</v>
       </c>
       <c r="H155" t="n">
-        <v>0.3600000143051147</v>
+        <v>0.1400000005960464</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -6487,7 +6507,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>PPD</t>
+          <t>PDC</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -6496,13 +6516,13 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>222974</v>
+        <v>3014</v>
       </c>
       <c r="H156" t="n">
-        <v>26.95999908447266</v>
+        <v>0.3600000143051147</v>
       </c>
       <c r="I156" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
@@ -6526,7 +6546,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>PPM</t>
+          <t>PPD</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -6535,13 +6555,13 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>3047</v>
+        <v>222974</v>
       </c>
       <c r="H157" t="n">
-        <v>0.3700000047683716</v>
+        <v>26.95999908447266</v>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="158">
@@ -6565,7 +6585,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>PRT</t>
+          <t>PPM</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -6574,10 +6594,10 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1442</v>
+        <v>3047</v>
       </c>
       <c r="H158" t="n">
-        <v>0.1700000017881393</v>
+        <v>0.3700000047683716</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -6604,7 +6624,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PRT</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -6613,13 +6633,13 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>336960</v>
+        <v>1442</v>
       </c>
       <c r="H159" t="n">
-        <v>40.7400016784668</v>
+        <v>0.1700000017881393</v>
       </c>
       <c r="I159" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
@@ -6643,7 +6663,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>UDP</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -6652,13 +6672,13 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>12590</v>
+        <v>336960</v>
       </c>
       <c r="H160" t="n">
-        <v>1.519999980926514</v>
+        <v>40.7400016784668</v>
       </c>
       <c r="I160" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="161">
@@ -6682,7 +6702,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>AOC</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -6691,10 +6711,10 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1167</v>
+        <v>12590</v>
       </c>
       <c r="H161" t="n">
-        <v>0.1400000005960464</v>
+        <v>1.519999980926514</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -6721,7 +6741,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>AOC</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -6730,13 +6750,13 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>129732</v>
+        <v>1167</v>
       </c>
       <c r="H162" t="n">
-        <v>15.68000030517578</v>
+        <v>0.1400000005960464</v>
       </c>
       <c r="I162" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
@@ -6760,7 +6780,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>FSP</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -6769,13 +6789,13 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>3817</v>
+        <v>129732</v>
       </c>
       <c r="H163" t="n">
-        <v>0.4600000083446503</v>
+        <v>15.68000030517578</v>
       </c>
       <c r="I163" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="164">
@@ -6799,7 +6819,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>LCI</t>
+          <t>FSP</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -6808,10 +6828,10 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>2376</v>
+        <v>3817</v>
       </c>
       <c r="H164" t="n">
-        <v>0.2899999916553497</v>
+        <v>0.4600000083446503</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -6838,7 +6858,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>MES</t>
+          <t>LCI</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -6847,10 +6867,10 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>2256</v>
+        <v>2376</v>
       </c>
       <c r="H165" t="n">
-        <v>0.2700000107288361</v>
+        <v>0.2899999916553497</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -6858,11 +6878,11 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>140000</v>
+        <v>130000</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>SANTARÉM</t>
+          <t>PORTO</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -6877,7 +6897,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>AOC</t>
+          <t>MES</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -6886,10 +6906,10 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1189</v>
+        <v>2256</v>
       </c>
       <c r="H166" t="n">
-        <v>0.4399999976158142</v>
+        <v>0.2700000107288361</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -6916,7 +6936,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>AOC</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -6925,13 +6945,13 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>37699</v>
+        <v>1189</v>
       </c>
       <c r="H167" t="n">
-        <v>13.85999965667725</v>
+        <v>0.4399999976158142</v>
       </c>
       <c r="I167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
@@ -6955,7 +6975,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>FSP</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -6964,13 +6984,13 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>3040</v>
+        <v>37699</v>
       </c>
       <c r="H168" t="n">
-        <v>1.120000004768372</v>
+        <v>13.85999965667725</v>
       </c>
       <c r="I168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169">
@@ -6994,7 +7014,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>LCI</t>
+          <t>FSP</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -7003,10 +7023,10 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1312</v>
+        <v>3040</v>
       </c>
       <c r="H169" t="n">
-        <v>0.4799999892711639</v>
+        <v>1.120000004768372</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -7033,7 +7053,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>MES</t>
+          <t>LCI</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -7042,10 +7062,10 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1534</v>
+        <v>1312</v>
       </c>
       <c r="H170" t="n">
-        <v>0.5600000023841858</v>
+        <v>0.4799999892711639</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -7072,7 +7092,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>MRPP</t>
+          <t>MES</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -7081,10 +7101,10 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1906</v>
+        <v>1534</v>
       </c>
       <c r="H171" t="n">
-        <v>0.699999988079071</v>
+        <v>0.5600000023841858</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -7111,7 +7131,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>PCP</t>
+          <t>MRPP</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -7120,13 +7140,13 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>43841</v>
+        <v>1906</v>
       </c>
       <c r="H172" t="n">
-        <v>16.1200008392334</v>
+        <v>0.699999988079071</v>
       </c>
       <c r="I172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
@@ -7150,7 +7170,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>PCP (M-L)</t>
+          <t>PCP</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -7159,13 +7179,13 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>962</v>
+        <v>43841</v>
       </c>
       <c r="H173" t="n">
-        <v>0.3499999940395355</v>
+        <v>16.1200008392334</v>
       </c>
       <c r="I173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174">
@@ -7189,7 +7209,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>PDC</t>
+          <t>PCP (M-L)</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -7198,10 +7218,10 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1690</v>
+        <v>962</v>
       </c>
       <c r="H174" t="n">
-        <v>0.6200000047683716</v>
+        <v>0.3499999940395355</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -7228,7 +7248,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>PPD</t>
+          <t>PDC</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -7237,13 +7257,13 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>53138</v>
+        <v>1690</v>
       </c>
       <c r="H175" t="n">
-        <v>19.54000091552734</v>
+        <v>0.6200000047683716</v>
       </c>
       <c r="I175" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
@@ -7267,7 +7287,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>PPM</t>
+          <t>PPD</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -7276,13 +7296,13 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1699</v>
+        <v>53138</v>
       </c>
       <c r="H176" t="n">
-        <v>0.6200000047683716</v>
+        <v>19.54000091552734</v>
       </c>
       <c r="I176" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="177">
@@ -7306,7 +7326,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PPM</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -7315,13 +7335,13 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>104422</v>
+        <v>1699</v>
       </c>
       <c r="H177" t="n">
-        <v>38.40000152587891</v>
+        <v>0.6200000047683716</v>
       </c>
       <c r="I177" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
@@ -7345,7 +7365,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>UDP</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -7354,22 +7374,22 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>4533</v>
+        <v>104422</v>
       </c>
       <c r="H178" t="n">
-        <v>1.669999957084656</v>
+        <v>38.40000152587891</v>
       </c>
       <c r="I178" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>150000</v>
+        <v>140000</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>SETÚBAL</t>
+          <t>SANTARÉM</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -7384,7 +7404,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>AOC</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -7393,10 +7413,10 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>911</v>
+        <v>4533</v>
       </c>
       <c r="H179" t="n">
-        <v>0.25</v>
+        <v>1.669999957084656</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -7423,7 +7443,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>AOC</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -7432,10 +7452,10 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>15724</v>
+        <v>911</v>
       </c>
       <c r="H180" t="n">
-        <v>4.380000114440918</v>
+        <v>0.25</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -7462,7 +7482,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>FSP</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -7471,10 +7491,10 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>3467</v>
+        <v>15724</v>
       </c>
       <c r="H181" t="n">
-        <v>0.9700000286102295</v>
+        <v>4.380000114440918</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -7501,7 +7521,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>LCI</t>
+          <t>FSP</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -7510,10 +7530,10 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>653</v>
+        <v>3467</v>
       </c>
       <c r="H182" t="n">
-        <v>0.1800000071525574</v>
+        <v>0.9700000286102295</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -7540,7 +7560,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>MES</t>
+          <t>LCI</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -7549,10 +7569,10 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>2242</v>
+        <v>653</v>
       </c>
       <c r="H183" t="n">
-        <v>0.6299999952316284</v>
+        <v>0.1800000071525574</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -7579,7 +7599,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>MRPP</t>
+          <t>MES</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -7588,10 +7608,10 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>3194</v>
+        <v>2242</v>
       </c>
       <c r="H184" t="n">
-        <v>0.8899999856948853</v>
+        <v>0.6299999952316284</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -7618,7 +7638,7 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>PCP</t>
+          <t>MRPP</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -7627,13 +7647,13 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>159087</v>
+        <v>3194</v>
       </c>
       <c r="H185" t="n">
-        <v>44.34999847412109</v>
+        <v>0.8899999856948853</v>
       </c>
       <c r="I185" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
@@ -7657,7 +7677,7 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>PCP (M-L)</t>
+          <t>PCP</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -7666,13 +7686,13 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>2987</v>
+        <v>159087</v>
       </c>
       <c r="H186" t="n">
-        <v>0.8299999833106995</v>
+        <v>44.34999847412109</v>
       </c>
       <c r="I186" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="187">
@@ -7696,7 +7716,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>PDC</t>
+          <t>PCP (M-L)</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -7705,10 +7725,10 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>885</v>
+        <v>2987</v>
       </c>
       <c r="H187" t="n">
-        <v>0.25</v>
+        <v>0.8299999833106995</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -7735,7 +7755,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>PPD</t>
+          <t>PDC</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -7744,13 +7764,13 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>30142</v>
+        <v>885</v>
       </c>
       <c r="H188" t="n">
-        <v>8.399999618530273</v>
+        <v>0.25</v>
       </c>
       <c r="I188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
@@ -7774,7 +7794,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>PPM</t>
+          <t>PPD</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -7783,13 +7803,13 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>973</v>
+        <v>30142</v>
       </c>
       <c r="H189" t="n">
-        <v>0.2700000107288361</v>
+        <v>8.399999618530273</v>
       </c>
       <c r="I189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
@@ -7813,7 +7833,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>PRT</t>
+          <t>PPM</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -7822,10 +7842,10 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>565</v>
+        <v>973</v>
       </c>
       <c r="H190" t="n">
-        <v>0.1599999964237213</v>
+        <v>0.2700000107288361</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -7852,7 +7872,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PRT</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -7861,13 +7881,13 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>115352</v>
+        <v>565</v>
       </c>
       <c r="H191" t="n">
-        <v>32.15999984741211</v>
+        <v>0.1599999964237213</v>
       </c>
       <c r="I191" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
@@ -7891,7 +7911,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>UDP</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -7900,22 +7920,22 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>10057</v>
+        <v>115352</v>
       </c>
       <c r="H192" t="n">
-        <v>2.799999952316284</v>
+        <v>32.15999984741211</v>
       </c>
       <c r="I192" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>160000</v>
+        <v>150000</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>VIANA DO CASTELO</t>
+          <t>SETÚBAL</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -7930,7 +7950,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>AOC</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -7939,10 +7959,10 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>380</v>
+        <v>10057</v>
       </c>
       <c r="H193" t="n">
-        <v>0.2899999916553497</v>
+        <v>2.799999952316284</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -7969,7 +7989,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>AOC</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -7978,13 +7998,13 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>30437</v>
+        <v>380</v>
       </c>
       <c r="H194" t="n">
-        <v>23.45999908447266</v>
+        <v>0.2899999916553497</v>
       </c>
       <c r="I194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
@@ -8008,7 +8028,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>FSP</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -8017,13 +8037,13 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1314</v>
+        <v>30437</v>
       </c>
       <c r="H195" t="n">
-        <v>1.009999990463257</v>
+        <v>23.45999908447266</v>
       </c>
       <c r="I195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196">
@@ -8047,7 +8067,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>LCI</t>
+          <t>FSP</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -8056,10 +8076,10 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>583</v>
+        <v>1314</v>
       </c>
       <c r="H196" t="n">
-        <v>0.449999988079071</v>
+        <v>1.009999990463257</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -8086,7 +8106,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>MES</t>
+          <t>LCI</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -8095,10 +8115,10 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>881</v>
+        <v>583</v>
       </c>
       <c r="H197" t="n">
-        <v>0.6800000071525574</v>
+        <v>0.449999988079071</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -8125,7 +8145,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>MRPP</t>
+          <t>MES</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -8134,10 +8154,10 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>399</v>
+        <v>881</v>
       </c>
       <c r="H198" t="n">
-        <v>0.3100000023841858</v>
+        <v>0.6800000071525574</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -8164,7 +8184,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>PCP</t>
+          <t>MRPP</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -8173,10 +8193,10 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>8611</v>
+        <v>399</v>
       </c>
       <c r="H199" t="n">
-        <v>6.639999866485596</v>
+        <v>0.3100000023841858</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -8203,7 +8223,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>PCP (M-L)</t>
+          <t>PCP</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -8212,10 +8232,10 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>314</v>
+        <v>8611</v>
       </c>
       <c r="H200" t="n">
-        <v>0.239999994635582</v>
+        <v>6.639999866485596</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -8242,7 +8262,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>PDC</t>
+          <t>PCP (M-L)</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -8251,10 +8271,10 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1192</v>
+        <v>314</v>
       </c>
       <c r="H201" t="n">
-        <v>0.9200000166893005</v>
+        <v>0.239999994635582</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -8281,7 +8301,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>PPD</t>
+          <t>PDC</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -8290,13 +8310,13 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>42519</v>
+        <v>1192</v>
       </c>
       <c r="H202" t="n">
-        <v>32.77000045776367</v>
+        <v>0.9200000166893005</v>
       </c>
       <c r="I202" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
@@ -8320,7 +8340,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>PPM</t>
+          <t>PPD</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -8329,13 +8349,13 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>995</v>
+        <v>42519</v>
       </c>
       <c r="H203" t="n">
-        <v>0.7699999809265137</v>
+        <v>32.77000045776367</v>
       </c>
       <c r="I203" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="204">
@@ -8359,7 +8379,7 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PPM</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -8368,13 +8388,13 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>33094</v>
+        <v>995</v>
       </c>
       <c r="H204" t="n">
-        <v>25.51000022888184</v>
+        <v>0.7699999809265137</v>
       </c>
       <c r="I204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
@@ -8398,7 +8418,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>UDP</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
@@ -8407,22 +8427,22 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1110</v>
+        <v>33094</v>
       </c>
       <c r="H205" t="n">
-        <v>0.8600000143051147</v>
+        <v>25.51000022888184</v>
       </c>
       <c r="I205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>170000</v>
+        <v>160000</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>VILA REAL</t>
+          <t>VIANA DO CASTELO</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -8437,7 +8457,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>MRPP</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -8446,10 +8466,10 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>534</v>
+        <v>1110</v>
       </c>
       <c r="H206" t="n">
-        <v>0.4099999964237213</v>
+        <v>0.8600000143051147</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -8476,7 +8496,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>PCP</t>
+          <t>MRPP</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -8485,10 +8505,10 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>4086</v>
+        <v>534</v>
       </c>
       <c r="H207" t="n">
-        <v>3.140000104904175</v>
+        <v>0.4099999964237213</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -8515,7 +8535,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>PCP (M-L)</t>
+          <t>PCP</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -8524,10 +8544,10 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>406</v>
+        <v>4086</v>
       </c>
       <c r="H208" t="n">
-        <v>0.3100000023841858</v>
+        <v>3.140000104904175</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -8554,7 +8574,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>PDC</t>
+          <t>PCP (M-L)</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -8563,10 +8583,10 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1041</v>
+        <v>406</v>
       </c>
       <c r="H209" t="n">
-        <v>0.800000011920929</v>
+        <v>0.3100000023841858</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -8593,7 +8613,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>PPD</t>
+          <t>PDC</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -8602,13 +8622,13 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>50736</v>
+        <v>1041</v>
       </c>
       <c r="H210" t="n">
-        <v>38.9900016784668</v>
+        <v>0.800000011920929</v>
       </c>
       <c r="I210" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
@@ -8632,7 +8652,7 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>PPM</t>
+          <t>PPD</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -8641,13 +8661,13 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>1079</v>
+        <v>50736</v>
       </c>
       <c r="H211" t="n">
-        <v>0.8299999833106995</v>
+        <v>38.9900016784668</v>
       </c>
       <c r="I211" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="212">
@@ -8671,7 +8691,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PPM</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -8680,13 +8700,13 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>34277</v>
+        <v>1079</v>
       </c>
       <c r="H212" t="n">
-        <v>26.34000015258789</v>
+        <v>0.8299999833106995</v>
       </c>
       <c r="I212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
@@ -8710,7 +8730,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>UDP</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -8719,13 +8739,13 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1192</v>
+        <v>34277</v>
       </c>
       <c r="H213" t="n">
-        <v>0.9200000166893005</v>
+        <v>26.34000015258789</v>
       </c>
       <c r="I213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214">
@@ -8749,7 +8769,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>AOC</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -8758,10 +8778,10 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>936</v>
+        <v>1192</v>
       </c>
       <c r="H214" t="n">
-        <v>0.7200000286102295</v>
+        <v>0.9200000166893005</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -8788,7 +8808,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>AOC</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
@@ -8797,13 +8817,13 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>23808</v>
+        <v>936</v>
       </c>
       <c r="H215" t="n">
-        <v>18.29999923706055</v>
+        <v>0.7200000286102295</v>
       </c>
       <c r="I215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
@@ -8827,7 +8847,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>FSP</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -8836,13 +8856,13 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>648</v>
+        <v>23808</v>
       </c>
       <c r="H216" t="n">
-        <v>0.5</v>
+        <v>18.29999923706055</v>
       </c>
       <c r="I216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
@@ -8866,7 +8886,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>LCI</t>
+          <t>FSP</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
@@ -8875,10 +8895,10 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>877</v>
+        <v>648</v>
       </c>
       <c r="H217" t="n">
-        <v>0.6700000166893005</v>
+        <v>0.5</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -8905,7 +8925,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>MES</t>
+          <t>LCI</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
@@ -8914,10 +8934,10 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>890</v>
+        <v>877</v>
       </c>
       <c r="H218" t="n">
-        <v>0.6800000071525574</v>
+        <v>0.6700000166893005</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -8925,11 +8945,11 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>180000</v>
+        <v>170000</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>VISEU</t>
+          <t>VILA REAL</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -8944,7 +8964,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>AOC</t>
+          <t>MES</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
@@ -8953,10 +8973,10 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>792</v>
+        <v>890</v>
       </c>
       <c r="H219" t="n">
-        <v>0.3600000143051147</v>
+        <v>0.6800000071525574</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -8983,7 +9003,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>AOC</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
@@ -8992,13 +9012,13 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>67864</v>
+        <v>792</v>
       </c>
       <c r="H220" t="n">
-        <v>31.15999984741211</v>
+        <v>0.3600000143051147</v>
       </c>
       <c r="I220" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
@@ -9022,7 +9042,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>FSP</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
@@ -9031,13 +9051,13 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1194</v>
+        <v>67864</v>
       </c>
       <c r="H221" t="n">
-        <v>0.550000011920929</v>
+        <v>31.15999984741211</v>
       </c>
       <c r="I221" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="222">
@@ -9061,7 +9081,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>LCI</t>
+          <t>FSP</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
@@ -9070,10 +9090,10 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>554</v>
+        <v>1194</v>
       </c>
       <c r="H222" t="n">
-        <v>0.25</v>
+        <v>0.550000011920929</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -9100,7 +9120,7 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>MES</t>
+          <t>LCI</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
@@ -9109,10 +9129,10 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1034</v>
+        <v>554</v>
       </c>
       <c r="H223" t="n">
-        <v>0.4699999988079071</v>
+        <v>0.25</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -9139,7 +9159,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>MRPP</t>
+          <t>MES</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
@@ -9148,10 +9168,10 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>815</v>
+        <v>1034</v>
       </c>
       <c r="H224" t="n">
-        <v>0.3700000047683716</v>
+        <v>0.4699999988079071</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -9178,7 +9198,7 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>PCP</t>
+          <t>MRPP</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
@@ -9187,10 +9207,10 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>4954</v>
+        <v>815</v>
       </c>
       <c r="H225" t="n">
-        <v>2.269999980926514</v>
+        <v>0.3700000047683716</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -9217,7 +9237,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>PCP (M-L)</t>
+          <t>PCP</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
@@ -9226,10 +9246,10 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>688</v>
+        <v>4954</v>
       </c>
       <c r="H226" t="n">
-        <v>0.3199999928474426</v>
+        <v>2.269999980926514</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -9256,7 +9276,7 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>PDC</t>
+          <t>PCP (M-L)</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
@@ -9265,10 +9285,10 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>2342</v>
+        <v>688</v>
       </c>
       <c r="H227" t="n">
-        <v>1.080000042915344</v>
+        <v>0.3199999928474426</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -9295,7 +9315,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>PPD</t>
+          <t>PDC</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
@@ -9304,13 +9324,13 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>70159</v>
+        <v>2342</v>
       </c>
       <c r="H228" t="n">
-        <v>32.22000122070312</v>
+        <v>1.080000042915344</v>
       </c>
       <c r="I228" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
@@ -9334,7 +9354,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>PPM</t>
+          <t>PPD</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
@@ -9343,13 +9363,13 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>2093</v>
+        <v>70159</v>
       </c>
       <c r="H229" t="n">
-        <v>0.9599999785423279</v>
+        <v>32.22000122070312</v>
       </c>
       <c r="I229" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="230">
@@ -9373,7 +9393,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PPM</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
@@ -9382,13 +9402,13 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>50033</v>
+        <v>2093</v>
       </c>
       <c r="H230" t="n">
-        <v>22.96999931335449</v>
+        <v>0.9599999785423279</v>
       </c>
       <c r="I230" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231">
@@ -9412,7 +9432,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>UDP</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
@@ -9421,22 +9441,22 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>2026</v>
+        <v>50033</v>
       </c>
       <c r="H231" t="n">
-        <v>0.9300000071525574</v>
+        <v>22.96999931335449</v>
       </c>
       <c r="I231" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>190000</v>
+        <v>180000</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>São Jorge</t>
+          <t>VISEU</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -9451,7 +9471,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
@@ -9460,10 +9480,10 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>4910</v>
+        <v>2026</v>
       </c>
       <c r="H232" t="n">
-        <v>12.10000038146973</v>
+        <v>0.9300000071525574</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -9475,7 +9495,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>AÇORES - Grupo Central</t>
+          <t>São Jorge</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -9514,7 +9534,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>São Jorge</t>
+          <t>AÇORES - Grupo Central</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -9529,7 +9549,7 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>MES</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
@@ -9538,10 +9558,10 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>456</v>
+        <v>4910</v>
       </c>
       <c r="H234" t="n">
-        <v>1.120000004768372</v>
+        <v>12.10000038146973</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -9553,7 +9573,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>AÇORES - Grupo Central</t>
+          <t>São Jorge</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -9592,7 +9612,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>São Jorge</t>
+          <t>AÇORES - Grupo Central</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -9607,7 +9627,7 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>MRPP</t>
+          <t>MES</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
@@ -9616,10 +9636,10 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>187</v>
+        <v>456</v>
       </c>
       <c r="H236" t="n">
-        <v>0.4600000083446503</v>
+        <v>1.120000004768372</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -9631,7 +9651,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>AÇORES - Grupo Central</t>
+          <t>São Jorge</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -9670,7 +9690,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>São Jorge</t>
+          <t>AÇORES - Grupo Central</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -9685,7 +9705,7 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>PCP</t>
+          <t>MRPP</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
@@ -9694,10 +9714,10 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>591</v>
+        <v>187</v>
       </c>
       <c r="H238" t="n">
-        <v>1.460000038146973</v>
+        <v>0.4600000083446503</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -9709,7 +9729,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>AÇORES - Grupo Central</t>
+          <t>São Jorge</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -9748,7 +9768,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>São Jorge</t>
+          <t>AÇORES - Grupo Central</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -9763,7 +9783,7 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>PPD</t>
+          <t>PCP</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
@@ -9772,13 +9792,13 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>21029</v>
+        <v>591</v>
       </c>
       <c r="H240" t="n">
-        <v>51.79999923706055</v>
+        <v>1.460000038146973</v>
       </c>
       <c r="I240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
@@ -9787,7 +9807,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>AÇORES - Grupo Central</t>
+          <t>São Jorge</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -9826,7 +9846,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>São Jorge</t>
+          <t>AÇORES - Grupo Central</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -9841,7 +9861,7 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>PPM</t>
+          <t>PPD</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
@@ -9850,13 +9870,13 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>235</v>
+        <v>21029</v>
       </c>
       <c r="H242" t="n">
-        <v>0.5799999833106995</v>
+        <v>51.79999923706055</v>
       </c>
       <c r="I242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243">
@@ -9865,7 +9885,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>AÇORES - Grupo Central</t>
+          <t>São Jorge</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -9904,7 +9924,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>São Jorge</t>
+          <t>AÇORES - Grupo Central</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -9919,7 +9939,7 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PPM</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
@@ -9928,13 +9948,13 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>12334</v>
+        <v>235</v>
       </c>
       <c r="H244" t="n">
-        <v>30.3799991607666</v>
+        <v>0.5799999833106995</v>
       </c>
       <c r="I244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245">
@@ -9943,7 +9963,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>AÇORES - Grupo Central</t>
+          <t>São Jorge</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -9978,11 +9998,11 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>200000</v>
+        <v>190000</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Corvo</t>
+          <t>AÇORES - Grupo Central</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -9997,7 +10017,7 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
@@ -10006,13 +10026,13 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>919</v>
+        <v>12334</v>
       </c>
       <c r="H246" t="n">
-        <v>4.320000171661377</v>
+        <v>30.3799991607666</v>
       </c>
       <c r="I246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">
@@ -10021,7 +10041,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>AÇORES - Grupo Ocidental</t>
+          <t>Corvo</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -10060,7 +10080,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Corvo</t>
+          <t>AÇORES - Grupo Ocidental</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -10075,7 +10095,7 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>MRPP</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
@@ -10084,10 +10104,10 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>102</v>
+        <v>919</v>
       </c>
       <c r="H248" t="n">
-        <v>0.4799999892711639</v>
+        <v>4.320000171661377</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -10099,7 +10119,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>AÇORES - Grupo Ocidental</t>
+          <t>Corvo</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -10138,7 +10158,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Corvo</t>
+          <t>AÇORES - Grupo Ocidental</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -10153,7 +10173,7 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>PCP</t>
+          <t>MRPP</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
@@ -10162,10 +10182,10 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>328</v>
+        <v>102</v>
       </c>
       <c r="H250" t="n">
-        <v>1.539999961853027</v>
+        <v>0.4799999892711639</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -10177,7 +10197,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>AÇORES - Grupo Ocidental</t>
+          <t>Corvo</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -10216,7 +10236,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Corvo</t>
+          <t>AÇORES - Grupo Ocidental</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -10231,7 +10251,7 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>PPD</t>
+          <t>PCP</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
@@ -10240,13 +10260,13 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>12141</v>
+        <v>328</v>
       </c>
       <c r="H252" t="n">
-        <v>57.02999877929688</v>
+        <v>1.539999961853027</v>
       </c>
       <c r="I252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
@@ -10255,7 +10275,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>AÇORES - Grupo Ocidental</t>
+          <t>Corvo</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -10294,7 +10314,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Corvo</t>
+          <t>AÇORES - Grupo Ocidental</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -10309,7 +10329,7 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PPD</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
@@ -10318,13 +10338,13 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>7278</v>
+        <v>12141</v>
       </c>
       <c r="H254" t="n">
-        <v>34.18999862670898</v>
+        <v>57.02999877929688</v>
       </c>
       <c r="I254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255">
@@ -10333,7 +10353,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>AÇORES - Grupo Ocidental</t>
+          <t>Corvo</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -10368,11 +10388,11 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>210000</v>
+        <v>200000</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>AÇORES - Grupo Oriental</t>
+          <t>AÇORES - Grupo Ocidental</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -10387,7 +10407,7 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>AOC</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
@@ -10396,10 +10416,10 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>595</v>
+        <v>7278</v>
       </c>
       <c r="H256" t="n">
-        <v>0.9100000262260437</v>
+        <v>34.18999862670898</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -10411,7 +10431,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>São Miguel</t>
+          <t>AÇORES - Grupo Oriental</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -10450,7 +10470,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>AÇORES - Grupo Oriental</t>
+          <t>São Miguel</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -10465,7 +10485,7 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>AOC</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
@@ -10474,10 +10494,10 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>7708</v>
+        <v>595</v>
       </c>
       <c r="H258" t="n">
-        <v>11.8100004196167</v>
+        <v>0.9100000262260437</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -10489,7 +10509,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>São Miguel</t>
+          <t>AÇORES - Grupo Oriental</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -10528,7 +10548,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>AÇORES - Grupo Oriental</t>
+          <t>São Miguel</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -10543,7 +10563,7 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>MES</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
@@ -10552,10 +10572,10 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>529</v>
+        <v>7708</v>
       </c>
       <c r="H260" t="n">
-        <v>0.8100000023841858</v>
+        <v>11.8100004196167</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -10567,7 +10587,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>São Miguel</t>
+          <t>AÇORES - Grupo Oriental</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -10606,7 +10626,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>AÇORES - Grupo Oriental</t>
+          <t>São Miguel</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -10621,7 +10641,7 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>MRPP</t>
+          <t>MES</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
@@ -10645,7 +10665,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>São Miguel</t>
+          <t>AÇORES - Grupo Oriental</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -10684,7 +10704,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>AÇORES - Grupo Oriental</t>
+          <t>São Miguel</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -10699,7 +10719,7 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>PCP</t>
+          <t>MRPP</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
@@ -10708,10 +10728,10 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>952</v>
+        <v>529</v>
       </c>
       <c r="H264" t="n">
-        <v>1.460000038146973</v>
+        <v>0.8100000023841858</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -10723,7 +10743,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>São Miguel</t>
+          <t>AÇORES - Grupo Oriental</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -10762,7 +10782,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>AÇORES - Grupo Oriental</t>
+          <t>São Miguel</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -10777,7 +10797,7 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>PPD</t>
+          <t>PCP</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
@@ -10786,13 +10806,13 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>29796</v>
+        <v>952</v>
       </c>
       <c r="H266" t="n">
-        <v>45.66999816894531</v>
+        <v>1.460000038146973</v>
       </c>
       <c r="I266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267">
@@ -10801,7 +10821,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>São Miguel</t>
+          <t>AÇORES - Grupo Oriental</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -10840,7 +10860,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>AÇORES - Grupo Oriental</t>
+          <t>São Miguel</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -10855,7 +10875,7 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PPD</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
@@ -10864,13 +10884,13 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>23124</v>
+        <v>29796</v>
       </c>
       <c r="H268" t="n">
-        <v>35.43999862670898</v>
+        <v>45.66999816894531</v>
       </c>
       <c r="I268" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269">
@@ -10879,7 +10899,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>São Miguel</t>
+          <t>AÇORES - Grupo Oriental</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -10914,11 +10934,11 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>220000</v>
+        <v>210000</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>MADEIRA</t>
+          <t>São Miguel</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -10933,7 +10953,7 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
@@ -10942,10 +10962,10 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>15310</v>
+        <v>23124</v>
       </c>
       <c r="H270" t="n">
-        <v>13.32999992370605</v>
+        <v>35.43999862670898</v>
       </c>
       <c r="I270" t="n">
         <v>1</v>
@@ -10972,7 +10992,7 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>MES</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
@@ -10981,13 +11001,13 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>1071</v>
+        <v>15310</v>
       </c>
       <c r="H271" t="n">
-        <v>0.9300000071525574</v>
+        <v>13.32999992370605</v>
       </c>
       <c r="I271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272">
@@ -11011,7 +11031,7 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>MRPP</t>
+          <t>MES</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
@@ -11020,10 +11040,10 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>553</v>
+        <v>1071</v>
       </c>
       <c r="H272" t="n">
-        <v>0.4799999892711639</v>
+        <v>0.9300000071525574</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -11050,7 +11070,7 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>PCP</t>
+          <t>MRPP</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
@@ -11059,10 +11079,10 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>1667</v>
+        <v>553</v>
       </c>
       <c r="H273" t="n">
-        <v>1.450000047683716</v>
+        <v>0.4799999892711639</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -11089,7 +11109,7 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>PDC</t>
+          <t>PCP</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
@@ -11098,10 +11118,10 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>1412</v>
+        <v>1667</v>
       </c>
       <c r="H274" t="n">
-        <v>1.230000019073486</v>
+        <v>1.450000047683716</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -11128,7 +11148,7 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>PPD</t>
+          <t>PDC</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
@@ -11137,13 +11157,13 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>60925</v>
+        <v>1412</v>
       </c>
       <c r="H275" t="n">
-        <v>53.04000091552734</v>
+        <v>1.230000019073486</v>
       </c>
       <c r="I275" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276">
@@ -11167,7 +11187,7 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>PPM</t>
+          <t>PPD</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
@@ -11176,13 +11196,13 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>456</v>
+        <v>60925</v>
       </c>
       <c r="H276" t="n">
-        <v>0.4000000059604645</v>
+        <v>53.04000091552734</v>
       </c>
       <c r="I276" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="277">
@@ -11206,7 +11226,7 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PPM</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
@@ -11215,13 +11235,13 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>28645</v>
+        <v>456</v>
       </c>
       <c r="H277" t="n">
-        <v>24.94000053405762</v>
+        <v>0.4000000059604645</v>
       </c>
       <c r="I277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278">
@@ -11245,7 +11265,7 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>UDP</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
@@ -11254,22 +11274,22 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>1492</v>
+        <v>28645</v>
       </c>
       <c r="H278" t="n">
-        <v>1.299999952316284</v>
+        <v>24.94000053405762</v>
       </c>
       <c r="I278" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>230000</v>
+        <v>220000</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>MADEIRA</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -11293,13 +11313,13 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>91690</v>
+        <v>1492</v>
       </c>
       <c r="H279" t="n">
-        <v>1.669999957084656</v>
+        <v>1.299999952316284</v>
       </c>
       <c r="I279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
@@ -11323,7 +11343,7 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>PCP</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
@@ -11332,13 +11352,13 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>788830</v>
+        <v>91690</v>
       </c>
       <c r="H280" t="n">
-        <v>14.39000034332275</v>
+        <v>1.669999957084656</v>
       </c>
       <c r="I280" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281">
@@ -11362,7 +11382,7 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>PCP (M-L)</t>
+          <t>PCP</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
@@ -11371,13 +11391,13 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>15830</v>
+        <v>788830</v>
       </c>
       <c r="H281" t="n">
-        <v>0.2899999916553497</v>
+        <v>14.39000034332275</v>
       </c>
       <c r="I281" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="282">
@@ -11401,7 +11421,7 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>PDC</t>
+          <t>PCP (M-L)</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
@@ -11410,10 +11430,10 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>29874</v>
+        <v>15830</v>
       </c>
       <c r="H282" t="n">
-        <v>0.5400000214576721</v>
+        <v>0.2899999916553497</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -11440,7 +11460,7 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>PPD</t>
+          <t>PDC</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
@@ -11449,13 +11469,13 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>1335381</v>
+        <v>29874</v>
       </c>
       <c r="H283" t="n">
-        <v>24.35000038146973</v>
+        <v>0.5400000214576721</v>
       </c>
       <c r="I283" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284">
@@ -11479,7 +11499,7 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>PPM</t>
+          <t>PPD</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
@@ -11488,13 +11508,13 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>28320</v>
+        <v>1335381</v>
       </c>
       <c r="H284" t="n">
-        <v>0.5199999809265137</v>
+        <v>24.35000038146973</v>
       </c>
       <c r="I284" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="285">
@@ -11518,7 +11538,7 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>PRT</t>
+          <t>PPM</t>
         </is>
       </c>
       <c r="F285" t="inlineStr">
@@ -11527,10 +11547,10 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>5171</v>
+        <v>28320</v>
       </c>
       <c r="H285" t="n">
-        <v>0.09000000357627869</v>
+        <v>0.5199999809265137</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -11557,7 +11577,7 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PRT</t>
         </is>
       </c>
       <c r="F286" t="inlineStr">
@@ -11566,13 +11586,13 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>1912921</v>
+        <v>5171</v>
       </c>
       <c r="H286" t="n">
-        <v>34.88999938964844</v>
+        <v>0.09000000357627869</v>
       </c>
       <c r="I286" t="n">
-        <v>107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287">
@@ -11596,7 +11616,7 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>AOC</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
@@ -11605,13 +11625,13 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>15778</v>
+        <v>1912921</v>
       </c>
       <c r="H287" t="n">
-        <v>0.2899999916553497</v>
+        <v>34.88999938964844</v>
       </c>
       <c r="I287" t="n">
-        <v>0</v>
+        <v>107</v>
       </c>
     </row>
     <row r="288">
@@ -11635,7 +11655,7 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>AOC</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
@@ -11644,13 +11664,13 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>876007</v>
+        <v>15778</v>
       </c>
       <c r="H288" t="n">
-        <v>15.97999954223633</v>
+        <v>0.2899999916553497</v>
       </c>
       <c r="I288" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289">
@@ -11674,7 +11694,7 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>FSP</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
@@ -11683,13 +11703,13 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>42162</v>
+        <v>876007</v>
       </c>
       <c r="H289" t="n">
-        <v>0.7699999809265137</v>
+        <v>15.97999954223633</v>
       </c>
       <c r="I289" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="290">
@@ -11713,7 +11733,7 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>LCI</t>
+          <t>FSP</t>
         </is>
       </c>
       <c r="F290" t="inlineStr">
@@ -11722,10 +11742,10 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>16269</v>
+        <v>42162</v>
       </c>
       <c r="H290" t="n">
-        <v>0.300000011920929</v>
+        <v>0.7699999809265137</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -11752,7 +11772,7 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>MES</t>
+          <t>LCI</t>
         </is>
       </c>
       <c r="F291" t="inlineStr">
@@ -11761,10 +11781,10 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>31332</v>
+        <v>16269</v>
       </c>
       <c r="H291" t="n">
-        <v>0.5699999928474426</v>
+        <v>0.300000011920929</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -11791,7 +11811,7 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>MRPP</t>
+          <t>MES</t>
         </is>
       </c>
       <c r="F292" t="inlineStr">
@@ -11800,10 +11820,10 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>36200</v>
+        <v>31332</v>
       </c>
       <c r="H292" t="n">
-        <v>0.6600000262260437</v>
+        <v>0.5699999928474426</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -11811,11 +11831,11 @@
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>750040</v>
+        <v>230000</v>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>EUROPA</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -11830,7 +11850,7 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>AOC</t>
+          <t>MRPP</t>
         </is>
       </c>
       <c r="F293" t="inlineStr">
@@ -11839,10 +11859,10 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>83</v>
+        <v>36200</v>
       </c>
       <c r="H293" t="n">
-        <v>0.1599999964237213</v>
+        <v>0.6600000262260437</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -11869,7 +11889,7 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>AOC</t>
         </is>
       </c>
       <c r="F294" t="inlineStr">
@@ -11878,10 +11898,10 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>3555</v>
+        <v>83</v>
       </c>
       <c r="H294" t="n">
-        <v>6.880000114440918</v>
+        <v>0.1599999964237213</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
@@ -11908,7 +11928,7 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>FSP</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F295" t="inlineStr">
@@ -11917,10 +11937,10 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>183</v>
+        <v>3555</v>
       </c>
       <c r="H295" t="n">
-        <v>0.3499999940395355</v>
+        <v>6.880000114440918</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
@@ -11947,7 +11967,7 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>LCI</t>
+          <t>FSP</t>
         </is>
       </c>
       <c r="F296" t="inlineStr">
@@ -11956,10 +11976,10 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>28</v>
+        <v>183</v>
       </c>
       <c r="H296" t="n">
-        <v>0.05000000074505806</v>
+        <v>0.3499999940395355</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
@@ -11986,7 +12006,7 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>MES</t>
+          <t>LCI</t>
         </is>
       </c>
       <c r="F297" t="inlineStr">
@@ -11995,10 +12015,10 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>165</v>
+        <v>28</v>
       </c>
       <c r="H297" t="n">
-        <v>0.3199999928474426</v>
+        <v>0.05000000074505806</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -12025,7 +12045,7 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>MRPP</t>
+          <t>MES</t>
         </is>
       </c>
       <c r="F298" t="inlineStr">
@@ -12034,10 +12054,10 @@
         </is>
       </c>
       <c r="G298" t="n">
-        <v>69</v>
+        <v>165</v>
       </c>
       <c r="H298" t="n">
-        <v>0.1299999952316284</v>
+        <v>0.3199999928474426</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -12064,7 +12084,7 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>PCP</t>
+          <t>MRPP</t>
         </is>
       </c>
       <c r="F299" t="inlineStr">
@@ -12073,10 +12093,10 @@
         </is>
       </c>
       <c r="G299" t="n">
-        <v>5212</v>
+        <v>69</v>
       </c>
       <c r="H299" t="n">
-        <v>10.07999992370605</v>
+        <v>0.1299999952316284</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -12103,7 +12123,7 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>PDC</t>
+          <t>PCP</t>
         </is>
       </c>
       <c r="F300" t="inlineStr">
@@ -12112,10 +12132,10 @@
         </is>
       </c>
       <c r="G300" t="n">
-        <v>475</v>
+        <v>5212</v>
       </c>
       <c r="H300" t="n">
-        <v>0.9200000166893005</v>
+        <v>10.07999992370605</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -12142,7 +12162,7 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>PPD</t>
+          <t>PDC</t>
         </is>
       </c>
       <c r="F301" t="inlineStr">
@@ -12151,13 +12171,13 @@
         </is>
       </c>
       <c r="G301" t="n">
-        <v>16644</v>
+        <v>475</v>
       </c>
       <c r="H301" t="n">
-        <v>32.20000076293945</v>
+        <v>0.9200000166893005</v>
       </c>
       <c r="I301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302">
@@ -12181,7 +12201,7 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>PPM</t>
+          <t>PPD</t>
         </is>
       </c>
       <c r="F302" t="inlineStr">
@@ -12190,13 +12210,13 @@
         </is>
       </c>
       <c r="G302" t="n">
-        <v>52</v>
+        <v>16644</v>
       </c>
       <c r="H302" t="n">
-        <v>0.1000000014901161</v>
+        <v>32.20000076293945</v>
       </c>
       <c r="I302" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303">
@@ -12220,7 +12240,7 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PPM</t>
         </is>
       </c>
       <c r="F303" t="inlineStr">
@@ -12229,13 +12249,13 @@
         </is>
       </c>
       <c r="G303" t="n">
-        <v>23824</v>
+        <v>52</v>
       </c>
       <c r="H303" t="n">
-        <v>46.09000015258789</v>
+        <v>0.1000000014901161</v>
       </c>
       <c r="I303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304">
@@ -12259,7 +12279,7 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>UDP</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F304" t="inlineStr">
@@ -12268,22 +12288,22 @@
         </is>
       </c>
       <c r="G304" t="n">
-        <v>407</v>
+        <v>23824</v>
       </c>
       <c r="H304" t="n">
-        <v>0.7900000214576721</v>
+        <v>46.09000015258789</v>
       </c>
       <c r="I304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>750050</v>
+        <v>750040</v>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>FORA DA EUROPA</t>
+          <t>EUROPA</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -12298,7 +12318,7 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>AOC</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="F305" t="inlineStr">
@@ -12307,10 +12327,10 @@
         </is>
       </c>
       <c r="G305" t="n">
-        <v>21</v>
+        <v>407</v>
       </c>
       <c r="H305" t="n">
-        <v>0.05000000074505806</v>
+        <v>0.7900000214576721</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
@@ -12337,7 +12357,7 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>AOC</t>
         </is>
       </c>
       <c r="F306" t="inlineStr">
@@ -12346,13 +12366,13 @@
         </is>
       </c>
       <c r="G306" t="n">
-        <v>13483</v>
+        <v>21</v>
       </c>
       <c r="H306" t="n">
-        <v>33.66999816894531</v>
+        <v>0.05000000074505806</v>
       </c>
       <c r="I306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307">
@@ -12376,7 +12396,7 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>LCI</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F307" t="inlineStr">
@@ -12385,13 +12405,13 @@
         </is>
       </c>
       <c r="G307" t="n">
-        <v>3</v>
+        <v>13483</v>
       </c>
       <c r="H307" t="n">
-        <v>0.009999999776482582</v>
+        <v>33.66999816894531</v>
       </c>
       <c r="I307" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308">
@@ -12415,7 +12435,7 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>MES</t>
+          <t>LCI</t>
         </is>
       </c>
       <c r="F308" t="inlineStr">
@@ -12424,10 +12444,10 @@
         </is>
       </c>
       <c r="G308" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="H308" t="n">
-        <v>0.09000000357627869</v>
+        <v>0.009999999776482582</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
@@ -12454,7 +12474,7 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>PCP</t>
+          <t>MES</t>
         </is>
       </c>
       <c r="F309" t="inlineStr">
@@ -12463,10 +12483,10 @@
         </is>
       </c>
       <c r="G309" t="n">
-        <v>562</v>
+        <v>36</v>
       </c>
       <c r="H309" t="n">
-        <v>1.399999976158142</v>
+        <v>0.09000000357627869</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
@@ -12493,7 +12513,7 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>PDC</t>
+          <t>PCP</t>
         </is>
       </c>
       <c r="F310" t="inlineStr">
@@ -12502,10 +12522,10 @@
         </is>
       </c>
       <c r="G310" t="n">
-        <v>1277</v>
+        <v>562</v>
       </c>
       <c r="H310" t="n">
-        <v>3.190000057220459</v>
+        <v>1.399999976158142</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
@@ -12532,7 +12552,7 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>PPD</t>
+          <t>PDC</t>
         </is>
       </c>
       <c r="F311" t="inlineStr">
@@ -12541,13 +12561,13 @@
         </is>
       </c>
       <c r="G311" t="n">
-        <v>21317</v>
+        <v>1277</v>
       </c>
       <c r="H311" t="n">
-        <v>53.22999954223633</v>
+        <v>3.190000057220459</v>
       </c>
       <c r="I311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312">
@@ -12571,7 +12591,7 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>PPM</t>
+          <t>PPD</t>
         </is>
       </c>
       <c r="F312" t="inlineStr">
@@ -12580,13 +12600,13 @@
         </is>
       </c>
       <c r="G312" t="n">
-        <v>123</v>
+        <v>21317</v>
       </c>
       <c r="H312" t="n">
-        <v>0.3100000023841858</v>
+        <v>53.22999954223633</v>
       </c>
       <c r="I312" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313">
@@ -12610,7 +12630,7 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PPM</t>
         </is>
       </c>
       <c r="F313" t="inlineStr">
@@ -12619,10 +12639,10 @@
         </is>
       </c>
       <c r="G313" t="n">
-        <v>2517</v>
+        <v>123</v>
       </c>
       <c r="H313" t="n">
-        <v>6.289999961853027</v>
+        <v>0.3100000023841858</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
@@ -12649,21 +12669,60 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="G314" t="n">
+        <v>2517</v>
+      </c>
+      <c r="H314" t="n">
+        <v>6.289999961853027</v>
+      </c>
+      <c r="I314" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>750050</v>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>FORA DA EUROPA</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>ar</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>25/04/1976</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
           <t>UDP</t>
         </is>
       </c>
-      <c r="F314" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="G314" t="n">
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="G315" t="n">
         <v>130</v>
       </c>
-      <c r="H314" t="n">
+      <c r="H315" t="n">
         <v>0.3199999928474426</v>
       </c>
-      <c r="I314" t="n">
+      <c r="I315" t="n">
         <v>0</v>
       </c>
     </row>
